--- a/Project Testing Plan/Function Test Checklist.xlsx
+++ b/Project Testing Plan/Function Test Checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C47150-C3D6-413C-9B44-12ECEBDDE4EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503CBC1-E86F-4D31-9526-C6D061FC4FE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Perks</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>mute sound and unmute sound</t>
   </si>
   <si>
-    <t>Navigate to Temp</t>
-  </si>
-  <si>
     <t>Navigate to Options</t>
   </si>
   <si>
@@ -125,13 +119,19 @@
   </si>
   <si>
     <t>Increase volume</t>
+  </si>
+  <si>
+    <t>Navigate to Splash</t>
+  </si>
+  <si>
+    <t>Splash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +139,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -476,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -485,13 +511,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -510,6 +533,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -528,65 +560,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,15 +899,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -885,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,363 +929,374 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="11" t="s">
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="11" t="s">
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="11" t="s">
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="30" t="s">
+      <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="22"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="22"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="27"/>
+      <c r="B26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="37"/>
+    </row>
+    <row r="33" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="11" t="s">
+      <c r="B37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="39"/>
+    </row>
+    <row r="38" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="37"/>
+    </row>
+    <row r="39" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-    <row r="32" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="13" t="s">
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="41"/>
-    </row>
-    <row r="41" spans="1:4" ht="21.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" ht="21.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A13"/>
@@ -1264,17 +1305,6 @@
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
